--- a/数据库和接口设计.xlsx
+++ b/数据库和接口设计.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9180" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9180" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="role" sheetId="2" r:id="rId2"/>
+    <sheet name="permission" sheetId="3" r:id="rId3"/>
+    <sheet name="resource" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -104,37 +106,13 @@
     <t>Administrator</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF374151"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Purchaser</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF374151"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Salesperson</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF374151"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Accountant</t>
-    </r>
+    <t>Purchaser</t>
+  </si>
+  <si>
+    <t>Salesperson</t>
+  </si>
+  <si>
+    <t>Accountant</t>
   </si>
 </sst>
 </file>
@@ -1303,7 +1281,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -1374,8 +1352,8 @@
   <sheetPr/>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -1427,4 +1405,36 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>